--- a/Producto/Web/Casos de prueba/18.xlsx
+++ b/Producto/Web/Casos de prueba/18.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>=MAX(Pasos!A:A)</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -727,7 +730,9 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
